--- a/Data/AccountData/accounts.xlsx
+++ b/Data/AccountData/accounts.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t xml:space="preserve">firstName</t>
   </si>
@@ -35,39 +35,6 @@
     <t xml:space="preserve">lastName</t>
   </si>
   <si>
-    <t xml:space="preserve">Madhukrishna Nipankar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madhukrishna.nipankar22@pccoepune.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pccoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prathamesh Patil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prathamesh.patil22@pccoepune.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siddhesh Chaudhari</t>
-  </si>
-  <si>
-    <t xml:space="preserve">siddhesh.chaudhari22@pccoepune.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akshay Jadhav</t>
-  </si>
-  <si>
-    <t xml:space="preserve">akshay.jadhav22@pccoepune.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gandharv Kulkarni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gandharv.kulkarni22@pccoepune.org</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yadhnesh Gangurde</t>
   </si>
   <si>
@@ -75,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">pict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Om Nikam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">omnikam0404@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -85,7 +58,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -114,6 +87,19 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -171,7 +157,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -179,20 +165,28 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -278,7 +272,7 @@
   <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -303,493 +297,445 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>9518311216</v>
+        <v>195118</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1121211212</v>
+        <v>2003</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>9356062932</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>1321313123</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>2221323133</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>195118</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>17</v>
-      </c>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="3"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="5"/>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="5"/>
     </row>
     <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
     <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
     </row>
     <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
     </row>
     <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
     </row>
     <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
     </row>
     <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
     </row>
     <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="4"/>
+      <c r="B52" s="4"/>
+      <c r="C52" s="5"/>
     </row>
     <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="4"/>
+      <c r="B53" s="4"/>
+      <c r="C53" s="5"/>
     </row>
     <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="4"/>
+      <c r="C54" s="5"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="4"/>
+      <c r="B55" s="4"/>
+      <c r="C55" s="5"/>
     </row>
     <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="5"/>
     </row>
     <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="5"/>
     </row>
     <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="5"/>
     </row>
     <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="5"/>
     </row>
     <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="5"/>
     </row>
     <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="5"/>
     </row>
     <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="4"/>
+      <c r="B63" s="4"/>
+      <c r="C63" s="5"/>
     </row>
     <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="5"/>
     </row>
     <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="3"/>
+      <c r="A65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="5"/>
     </row>
     <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="3"/>
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="5"/>
     </row>
     <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="3"/>
+      <c r="A67" s="4"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="5"/>
     </row>
     <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="3"/>
+      <c r="A68" s="4"/>
+      <c r="B68" s="4"/>
+      <c r="C68" s="5"/>
     </row>
     <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="3"/>
+      <c r="A69" s="4"/>
+      <c r="B69" s="4"/>
+      <c r="C69" s="5"/>
     </row>
     <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="3"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="4"/>
+      <c r="C70" s="5"/>
     </row>
     <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="3"/>
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="5"/>
     </row>
     <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="3"/>
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="5"/>
     </row>
     <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="5"/>
     </row>
     <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="5"/>
     </row>
     <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="5"/>
     </row>
     <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="5"/>
     </row>
     <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="5"/>
     </row>
     <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="5"/>
     </row>
     <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="5"/>
     </row>
     <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="3"/>
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="5"/>
     </row>
     <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="3"/>
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="5"/>
     </row>
     <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="3"/>
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="5"/>
     </row>
     <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="3"/>
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="5"/>
     </row>
     <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="3"/>
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="5"/>
     </row>
     <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="3"/>
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="3"/>
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="madhukrishna.nipankar22@pccoepune.org"/>
-    <hyperlink ref="B3" r:id="rId2" display="prathamesh.patil22@pccoepune.org"/>
-    <hyperlink ref="B4" r:id="rId3" display="siddhesh.chaudhari22@pccoepune.org"/>
-    <hyperlink ref="B5" r:id="rId4" display="akshay.jadhav22@pccoepune.org"/>
-    <hyperlink ref="B6" r:id="rId5" display="gandharv.kulkarni22@pccoepune.org"/>
-    <hyperlink ref="B7" r:id="rId6" display="gangurdeyadhnesh28@gmail.com"/>
+    <hyperlink ref="B2" r:id="rId1" display="gangurdeyadhnesh28@gmail.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="omnikam0404@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
